--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,238 +43,253 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>risk</t>
+    <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>demand</t>
+    <t>of</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>you</t>
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
   </si>
 </sst>
 </file>
@@ -632,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +655,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
         <v>58</v>
@@ -722,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -751,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,7 +787,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>0.9696969696969697</v>
@@ -801,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,16 +837,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,7 +887,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>0.9491525423728814</v>
@@ -922,16 +937,16 @@
         <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9242819843342036</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>354</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>354</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,16 +987,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.9190600522193212</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>352</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>352</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,10 +1019,10 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>0.9166666666666666</v>
@@ -1072,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
@@ -1101,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,16 +1137,16 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.9084507042253521</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L11">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.9069767441860465</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13">
         <v>0.8936170212765957</v>
@@ -1251,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7254901960784313</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>0.8928571428571429</v>
@@ -1301,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6996124031007752</v>
+        <v>0.7073643410852714</v>
       </c>
       <c r="C15">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D15">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.8875</v>
+        <v>0.890625</v>
       </c>
       <c r="L15">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="M15">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.671957671957672</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.8828125</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L16">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>0.8773584905660378</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6440677966101694</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6375838926174496</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C19">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D19">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.8448275862068966</v>
+        <v>0.875</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6129032258064516</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,31 +1584,31 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L20">
+        <v>70</v>
+      </c>
+      <c r="M20">
+        <v>70</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>12</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20">
-        <v>0.8414634146341463</v>
-      </c>
-      <c r="L20">
-        <v>69</v>
-      </c>
-      <c r="M20">
-        <v>69</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5897435897435898</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21">
         <v>0.8214285714285714</v>
@@ -1651,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5675675675675675</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.8095238095238095</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5611111111111111</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C23">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="D23">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.7948717948717948</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1751,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5555555555555556</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1769,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K24">
         <v>0.7916666666666666</v>
@@ -1801,13 +1816,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5178571428571429</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1819,19 +1834,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1843,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1851,13 +1866,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.48</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C26">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1893,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1901,13 +1916,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4363636363636363</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1919,19 +1934,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.7714285714285715</v>
+        <v>0.7676470588235295</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1951,13 +1966,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3818181818181818</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1969,19 +1984,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.7588235294117647</v>
+        <v>0.75</v>
       </c>
       <c r="L28">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2001,13 +2016,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3134920634920635</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="C29">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2019,19 +2034,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>173</v>
+        <v>48</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.7423728813559322</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L29">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2043,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>76</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2051,13 +2066,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2069,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.74</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2093,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,13 +2116,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2875</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2119,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.7142857142857143</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2143,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2151,13 +2166,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2727272727272727</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2169,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K32">
-        <v>0.7071129707112971</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="L32">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="M32">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2193,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2201,13 +2216,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08666666666666667</v>
+        <v>0.1876675603217158</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2219,19 +2234,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.7037037037037037</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2251,13 +2266,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.08310991957104558</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2269,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.7</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2293,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2301,37 +2316,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.003810669875651825</v>
+        <v>0.0118043844856661</v>
       </c>
       <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>35</v>
+      </c>
+      <c r="E35">
+        <v>0.2</v>
+      </c>
+      <c r="F35">
+        <v>0.8</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>2344</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K35">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L35">
         <v>19</v>
       </c>
-      <c r="D35">
-        <v>29</v>
-      </c>
-      <c r="E35">
-        <v>0.34</v>
-      </c>
-      <c r="F35">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>4967</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.6914893617021277</v>
-      </c>
-      <c r="L35">
-        <v>65</v>
-      </c>
       <c r="M35">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2343,21 +2358,45 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.003882741215298</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>0.41</v>
+      </c>
+      <c r="F36">
+        <v>0.5900000000000001</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>5131</v>
+      </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K36">
-        <v>0.6857142857142857</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L36">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2369,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="J37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K37">
-        <v>0.6741573033707865</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L37">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2395,21 +2434,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K38">
-        <v>0.6666666666666666</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2421,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K39">
-        <v>0.6615384615384615</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L39">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2447,21 +2486,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.6470588235294118</v>
+        <v>0.64</v>
       </c>
       <c r="L40">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2478,16 +2517,16 @@
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.6222222222222222</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L41">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2499,21 +2538,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.5952380952380952</v>
+        <v>0.6</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2525,15 +2564,15 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.5616438356164384</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L43">
         <v>41</v>
@@ -2551,21 +2590,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.5256410256410257</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2577,21 +2616,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.453125</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2603,21 +2642,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>0.423728813559322</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2629,15 +2668,15 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.3859649122807017</v>
+        <v>0.34375</v>
       </c>
       <c r="L47">
         <v>22</v>
@@ -2655,7 +2694,111 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>35</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K48">
+        <v>0.2018348623853211</v>
+      </c>
+      <c r="L48">
+        <v>22</v>
+      </c>
+      <c r="M48">
+        <v>22</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K49">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K50">
+        <v>0.03005008347245409</v>
+      </c>
+      <c r="L50">
+        <v>36</v>
+      </c>
+      <c r="M50">
+        <v>38</v>
+      </c>
+      <c r="N50">
+        <v>0.95</v>
+      </c>
+      <c r="O50">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K51">
+        <v>0.00381372942593336</v>
+      </c>
+      <c r="L51">
+        <v>19</v>
+      </c>
+      <c r="M51">
+        <v>33</v>
+      </c>
+      <c r="N51">
+        <v>0.58</v>
+      </c>
+      <c r="O51">
+        <v>0.42</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>4963</v>
       </c>
     </row>
   </sheetData>
